--- a/template.xlsx
+++ b/template.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shipping_erp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55D3504-3840-484C-98F3-63063DB6AD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA50223-739A-4C2C-B158-83B33875C0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId2"/>
-    <sheet name="Data Values" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId3"/>
+    <sheet name="Data Values" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="502">
   <si>
     <t xml:space="preserve">401/402 Raheja Plaza, 15/B Shah Industrial Estate, Off Andheri Link Road, Andheri (West), Mumbai 400 053. Maharashtra. India. </t>
   </si>
@@ -528,6 +529,1105 @@
   </si>
   <si>
     <t>Refresher Training For Advance Fire Fighting (AFF(R))</t>
+  </si>
+  <si>
+    <t>Dangerous Cargo Endorsements</t>
+  </si>
+  <si>
+    <t>Grade / Level I / II</t>
+  </si>
+  <si>
+    <t>10+2 School Details</t>
+  </si>
+  <si>
+    <t>Name of School / Institution</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Type of Degree</t>
+  </si>
+  <si>
+    <t>Pre Sea Training / Apprentice Ship</t>
+  </si>
+  <si>
+    <t>Name of Institute / College</t>
+  </si>
+  <si>
+    <t>MEDICAL HISTORY</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(a) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Have you ever signed off from a ship due to Medical reasons? </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(If Yes give details)</t>
+    </r>
+  </si>
+  <si>
+    <t>Name of Vessel(s)</t>
+  </si>
+  <si>
+    <t>Date of Occurrence</t>
+  </si>
+  <si>
+    <t>Brief Description of Illness / Injury / Accident</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(b) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Did you suffer or are you presently suffering from any disease likely to render you unfit for service at sea or likely to endanger the health of others on board.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(c) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Are you addicted to alcohol or drug of any kind?</t>
+    </r>
+  </si>
+  <si>
+    <t>(d) Have you suffered from Malaria ?</t>
+  </si>
+  <si>
+    <t>(e) Have you suffered from Diabetes ?</t>
+  </si>
+  <si>
+    <t>(g) Have you suffered from Epilepsy ?</t>
+  </si>
+  <si>
+    <t>(g) Have you suffered from Nervous Disability ?</t>
+  </si>
+  <si>
+    <t>Vessel Type</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>LPG</t>
+  </si>
+  <si>
+    <t>Chemical</t>
+  </si>
+  <si>
+    <t>SSC</t>
+  </si>
+  <si>
+    <t>School Degree</t>
+  </si>
+  <si>
+    <t>HSC</t>
+  </si>
+  <si>
+    <t>Previous Sea Service (Date Commencing from Last Vessel)</t>
+  </si>
+  <si>
+    <t>Sr.</t>
+  </si>
+  <si>
+    <t>Name of Owners / Manager</t>
+  </si>
+  <si>
+    <t>Name of Vessel</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Flag</t>
+  </si>
+  <si>
+    <t>DWT</t>
+  </si>
+  <si>
+    <t>GRT</t>
+  </si>
+  <si>
+    <t>BHP</t>
+  </si>
+  <si>
+    <t>Engine Type</t>
+  </si>
+  <si>
+    <t>UMS Y/N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From </t>
+  </si>
+  <si>
+    <t>Total MM/DD</t>
+  </si>
+  <si>
+    <t>Reason for 
+Early Sign-Off</t>
+  </si>
+  <si>
+    <t>Sea service to Include Cadetship onward</t>
+  </si>
+  <si>
+    <t>Flags</t>
+  </si>
+  <si>
+    <t>Ascension Island (AC)</t>
+  </si>
+  <si>
+    <t>Andorra (AD)</t>
+  </si>
+  <si>
+    <t>United Arab Emirates (AE)</t>
+  </si>
+  <si>
+    <t>Afghanistan (AF)</t>
+  </si>
+  <si>
+    <t>Antigua &amp; Barbuda (AG)</t>
+  </si>
+  <si>
+    <t>Anguilla (AI)</t>
+  </si>
+  <si>
+    <t>Albania (AL)</t>
+  </si>
+  <si>
+    <t>Armenia (AM)</t>
+  </si>
+  <si>
+    <t>Angola (AO)</t>
+  </si>
+  <si>
+    <t>Antarctica (AQ)</t>
+  </si>
+  <si>
+    <t>Argentina (AR)</t>
+  </si>
+  <si>
+    <t>American Samoa (AS)</t>
+  </si>
+  <si>
+    <t>Austria (AT)</t>
+  </si>
+  <si>
+    <t>Australia (AU)</t>
+  </si>
+  <si>
+    <t>Aruba (AW)</t>
+  </si>
+  <si>
+    <t>�land Islands (AX)</t>
+  </si>
+  <si>
+    <t>Azerbaijan (AZ)</t>
+  </si>
+  <si>
+    <t>Bosnia &amp; Herzegovina (BA)</t>
+  </si>
+  <si>
+    <t>Barbados (BB)</t>
+  </si>
+  <si>
+    <t>Bangladesh (BD)</t>
+  </si>
+  <si>
+    <t>Belgium (BE)</t>
+  </si>
+  <si>
+    <t>Burkina Faso (BF)</t>
+  </si>
+  <si>
+    <t>Bulgaria (BG)</t>
+  </si>
+  <si>
+    <t>Bahrain (BH)</t>
+  </si>
+  <si>
+    <t>Burundi (BI)</t>
+  </si>
+  <si>
+    <t>Benin (BJ)</t>
+  </si>
+  <si>
+    <t>St. Barth�lemy (BL)</t>
+  </si>
+  <si>
+    <t>Bermuda (BM)</t>
+  </si>
+  <si>
+    <t>Brunei (BN)</t>
+  </si>
+  <si>
+    <t>Bolivia (BO)</t>
+  </si>
+  <si>
+    <t>Caribbean Netherlands (BQ)</t>
+  </si>
+  <si>
+    <t>Brazil (BR)</t>
+  </si>
+  <si>
+    <t>Bahamas (BS)</t>
+  </si>
+  <si>
+    <t>Bhutan (BT)</t>
+  </si>
+  <si>
+    <t>Bouvet Island (BV)</t>
+  </si>
+  <si>
+    <t>Botswana (BW)</t>
+  </si>
+  <si>
+    <t>Belarus (BY)</t>
+  </si>
+  <si>
+    <t>Belize (BZ)</t>
+  </si>
+  <si>
+    <t>Canada (CA)</t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands (CC)</t>
+  </si>
+  <si>
+    <t>Congo - Kinshasa (CD)</t>
+  </si>
+  <si>
+    <t>Central African Republic (CF)</t>
+  </si>
+  <si>
+    <t>Congo - Brazzaville (CG)</t>
+  </si>
+  <si>
+    <t>Switzerland (CH)</t>
+  </si>
+  <si>
+    <t>C�te d�Ivoire (CI)</t>
+  </si>
+  <si>
+    <t>Cook Islands (CK)</t>
+  </si>
+  <si>
+    <t>Chile (CL)</t>
+  </si>
+  <si>
+    <t>Cameroon (CM)</t>
+  </si>
+  <si>
+    <t>China (CN)</t>
+  </si>
+  <si>
+    <t>Colombia (CO)</t>
+  </si>
+  <si>
+    <t>Clipperton Island (CP)</t>
+  </si>
+  <si>
+    <t>Costa Rica (CR)</t>
+  </si>
+  <si>
+    <t>Cuba (CU)</t>
+  </si>
+  <si>
+    <t>Cape Verde (CV)</t>
+  </si>
+  <si>
+    <t>Cura�ao (CW)</t>
+  </si>
+  <si>
+    <t>Christmas Island (CX)</t>
+  </si>
+  <si>
+    <t>Cyprus (CY)</t>
+  </si>
+  <si>
+    <t>Czechia (CZ)</t>
+  </si>
+  <si>
+    <t>Germany (DE)</t>
+  </si>
+  <si>
+    <t>Diego Garcia (DG)</t>
+  </si>
+  <si>
+    <t>Djibouti (DJ)</t>
+  </si>
+  <si>
+    <t>Denmark (DK)</t>
+  </si>
+  <si>
+    <t>Dominica (DM)</t>
+  </si>
+  <si>
+    <t>Dominican Republic (DO)</t>
+  </si>
+  <si>
+    <t>Algeria (DZ)</t>
+  </si>
+  <si>
+    <t>Ceuta &amp; Melilla (EA)</t>
+  </si>
+  <si>
+    <t>Ecuador (EC)</t>
+  </si>
+  <si>
+    <t>Estonia (EE)</t>
+  </si>
+  <si>
+    <t>Egypt (EG)</t>
+  </si>
+  <si>
+    <t>Western Sahara (EH)</t>
+  </si>
+  <si>
+    <t>Eritrea (ER)</t>
+  </si>
+  <si>
+    <t>Spain (ES)</t>
+  </si>
+  <si>
+    <t>Ethiopia (ET)</t>
+  </si>
+  <si>
+    <t>European Union (EU)</t>
+  </si>
+  <si>
+    <t>Finland (FI)</t>
+  </si>
+  <si>
+    <t>Fiji (FJ)</t>
+  </si>
+  <si>
+    <t>Falkland Islands (FK)</t>
+  </si>
+  <si>
+    <t>Micronesia (FM)</t>
+  </si>
+  <si>
+    <t>Faroe Islands (FO)</t>
+  </si>
+  <si>
+    <t>France (FR)</t>
+  </si>
+  <si>
+    <t>Gabon (GA)</t>
+  </si>
+  <si>
+    <t>United Kingdom (GB)</t>
+  </si>
+  <si>
+    <t>Grenada (GD)</t>
+  </si>
+  <si>
+    <t>Georgia (GE)</t>
+  </si>
+  <si>
+    <t>French Guiana (GF)</t>
+  </si>
+  <si>
+    <t>Guernsey (GG)</t>
+  </si>
+  <si>
+    <t>Ghana (GH)</t>
+  </si>
+  <si>
+    <t>Gibraltar (GI)</t>
+  </si>
+  <si>
+    <t>Greenland (GL)</t>
+  </si>
+  <si>
+    <t>Gambia (GM)</t>
+  </si>
+  <si>
+    <t>Guinea (GN)</t>
+  </si>
+  <si>
+    <t>Guadeloupe (GP)</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea (GQ)</t>
+  </si>
+  <si>
+    <t>Greece (GR)</t>
+  </si>
+  <si>
+    <t>South Georgia &amp; South Sandwich Islands (GS)</t>
+  </si>
+  <si>
+    <t>Guatemala (GT)</t>
+  </si>
+  <si>
+    <t>Guam (GU)</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau (GW)</t>
+  </si>
+  <si>
+    <t>Guyana (GY)</t>
+  </si>
+  <si>
+    <t>Hong Kong SAR China (HK)</t>
+  </si>
+  <si>
+    <t>Heard &amp; McDonald Islands (HM)</t>
+  </si>
+  <si>
+    <t>Honduras (HN)</t>
+  </si>
+  <si>
+    <t>Croatia (HR)</t>
+  </si>
+  <si>
+    <t>Haiti (HT)</t>
+  </si>
+  <si>
+    <t>Hungary (HU)</t>
+  </si>
+  <si>
+    <t>Canary Islands (IC)</t>
+  </si>
+  <si>
+    <t>Indonesia (ID)</t>
+  </si>
+  <si>
+    <t>Ireland (IE)</t>
+  </si>
+  <si>
+    <t>Israel (IL)</t>
+  </si>
+  <si>
+    <t>Isle of Man (IM)</t>
+  </si>
+  <si>
+    <t>India (IN)</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory (IO)</t>
+  </si>
+  <si>
+    <t>Iraq (IQ)</t>
+  </si>
+  <si>
+    <t>Iran (IR)</t>
+  </si>
+  <si>
+    <t>Iceland (IS)</t>
+  </si>
+  <si>
+    <t>Italy (IT)</t>
+  </si>
+  <si>
+    <t>Jersey (JE)</t>
+  </si>
+  <si>
+    <t>Jamaica (JM)</t>
+  </si>
+  <si>
+    <t>Jordan (JO)</t>
+  </si>
+  <si>
+    <t>Japan (JP)</t>
+  </si>
+  <si>
+    <t>Kenya (KE)</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan (KG)</t>
+  </si>
+  <si>
+    <t>Cambodia (KH)</t>
+  </si>
+  <si>
+    <t>Kiribati (KI)</t>
+  </si>
+  <si>
+    <t>Comoros (KM)</t>
+  </si>
+  <si>
+    <t>St. Kitts &amp; Nevis (KN)</t>
+  </si>
+  <si>
+    <t>North Korea (KP)</t>
+  </si>
+  <si>
+    <t>South Korea (KR)</t>
+  </si>
+  <si>
+    <t>Kuwait (KW)</t>
+  </si>
+  <si>
+    <t>Cayman Islands (KY)</t>
+  </si>
+  <si>
+    <t>Kazakhstan (KZ)</t>
+  </si>
+  <si>
+    <t>Laos (LA)</t>
+  </si>
+  <si>
+    <t>Lebanon (LB)</t>
+  </si>
+  <si>
+    <t>St. Lucia (LC)</t>
+  </si>
+  <si>
+    <t>Liechtenstein (LI)</t>
+  </si>
+  <si>
+    <t>Sri Lanka (LK)</t>
+  </si>
+  <si>
+    <t>Liberia (LR)</t>
+  </si>
+  <si>
+    <t>Lesotho (LS)</t>
+  </si>
+  <si>
+    <t>Lithuania (LT)</t>
+  </si>
+  <si>
+    <t>Luxembourg (LU)</t>
+  </si>
+  <si>
+    <t>Latvia (LV)</t>
+  </si>
+  <si>
+    <t>Libya (LY)</t>
+  </si>
+  <si>
+    <t>Morocco (MA)</t>
+  </si>
+  <si>
+    <t>Monaco (MC)</t>
+  </si>
+  <si>
+    <t>Moldova (MD)</t>
+  </si>
+  <si>
+    <t>Montenegro (ME)</t>
+  </si>
+  <si>
+    <t>St. Martin (MF)</t>
+  </si>
+  <si>
+    <t>Madagascar (MG)</t>
+  </si>
+  <si>
+    <t>Marshall Islands (MH)</t>
+  </si>
+  <si>
+    <t>North Macedonia (MK)</t>
+  </si>
+  <si>
+    <t>Mali (ML)</t>
+  </si>
+  <si>
+    <t>Myanmar (Burma) (MM)</t>
+  </si>
+  <si>
+    <t>Mongolia (MN)</t>
+  </si>
+  <si>
+    <t>Macao SAR China (MO)</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands (MP)</t>
+  </si>
+  <si>
+    <t>Martinique (MQ)</t>
+  </si>
+  <si>
+    <t>Mauritania (MR)</t>
+  </si>
+  <si>
+    <t>Montserrat (MS)</t>
+  </si>
+  <si>
+    <t>Malta (MT)</t>
+  </si>
+  <si>
+    <t>Mauritius (MU)</t>
+  </si>
+  <si>
+    <t>Maldives (MV)</t>
+  </si>
+  <si>
+    <t>Malawi (MW)</t>
+  </si>
+  <si>
+    <t>Mexico (MX)</t>
+  </si>
+  <si>
+    <t>Malaysia (MY)</t>
+  </si>
+  <si>
+    <t>Mozambique (MZ)</t>
+  </si>
+  <si>
+    <t>Namibia (NA)</t>
+  </si>
+  <si>
+    <t>New Caledonia (NC)</t>
+  </si>
+  <si>
+    <t>Niger (NE)</t>
+  </si>
+  <si>
+    <t>Norfolk Island (NF)</t>
+  </si>
+  <si>
+    <t>Nigeria (NG)</t>
+  </si>
+  <si>
+    <t>Nicaragua (NI)</t>
+  </si>
+  <si>
+    <t>Netherlands (NL)</t>
+  </si>
+  <si>
+    <t>Norway (NO)</t>
+  </si>
+  <si>
+    <t>Nepal (NP)</t>
+  </si>
+  <si>
+    <t>Nauru (NR)</t>
+  </si>
+  <si>
+    <t>Niue (NU)</t>
+  </si>
+  <si>
+    <t>New Zealand (NZ)</t>
+  </si>
+  <si>
+    <t>Oman (OM)</t>
+  </si>
+  <si>
+    <t>Panama (PA)</t>
+  </si>
+  <si>
+    <t>Peru (PE)</t>
+  </si>
+  <si>
+    <t>French Polynesia (PF)</t>
+  </si>
+  <si>
+    <t>Papua New Guinea (PG)</t>
+  </si>
+  <si>
+    <t>Philippines (PH)</t>
+  </si>
+  <si>
+    <t>Pakistan (PK)</t>
+  </si>
+  <si>
+    <t>Poland (PL)</t>
+  </si>
+  <si>
+    <t>St. Pierre &amp; Miquelon (PM)</t>
+  </si>
+  <si>
+    <t>Pitcairn Islands (PN)</t>
+  </si>
+  <si>
+    <t>Puerto Rico (PR)</t>
+  </si>
+  <si>
+    <t>Palestinian Territories (PS)</t>
+  </si>
+  <si>
+    <t>Portugal (PT)</t>
+  </si>
+  <si>
+    <t>Palau (PW)</t>
+  </si>
+  <si>
+    <t>Paraguay (PY)</t>
+  </si>
+  <si>
+    <t>Qatar (QA)</t>
+  </si>
+  <si>
+    <t>R�union (RE)</t>
+  </si>
+  <si>
+    <t>Romania (RO)</t>
+  </si>
+  <si>
+    <t>Serbia (RS)</t>
+  </si>
+  <si>
+    <t>Russia (RU)</t>
+  </si>
+  <si>
+    <t>Rwanda (RW)</t>
+  </si>
+  <si>
+    <t>Saudi Arabia (SA)</t>
+  </si>
+  <si>
+    <t>Solomon Islands (SB)</t>
+  </si>
+  <si>
+    <t>Seychelles (SC)</t>
+  </si>
+  <si>
+    <t>Sudan (SD)</t>
+  </si>
+  <si>
+    <t>Sweden (SE)</t>
+  </si>
+  <si>
+    <t>Singapore (SG)</t>
+  </si>
+  <si>
+    <t>St. Helena (SH)</t>
+  </si>
+  <si>
+    <t>Slovenia (SI)</t>
+  </si>
+  <si>
+    <t>Svalbard &amp; Jan Mayen (SJ)</t>
+  </si>
+  <si>
+    <t>Slovakia (SK)</t>
+  </si>
+  <si>
+    <t>Sierra Leone (SL)</t>
+  </si>
+  <si>
+    <t>San Marino (SM)</t>
+  </si>
+  <si>
+    <t>Senegal (SN)</t>
+  </si>
+  <si>
+    <t>Somalia (SO)</t>
+  </si>
+  <si>
+    <t>Suriname (SR)</t>
+  </si>
+  <si>
+    <t>South Sudan (SS)</t>
+  </si>
+  <si>
+    <t>S�o Tom� &amp; Pr�ncipe (ST)</t>
+  </si>
+  <si>
+    <t>El Salvador (SV)</t>
+  </si>
+  <si>
+    <t>Sint Maarten (SX)</t>
+  </si>
+  <si>
+    <t>Syria (SY)</t>
+  </si>
+  <si>
+    <t>Eswatini (SZ)</t>
+  </si>
+  <si>
+    <t>Tristan da Cunha (TA)</t>
+  </si>
+  <si>
+    <t>Turks &amp; Caicos Islands (TC)</t>
+  </si>
+  <si>
+    <t>Chad (TD)</t>
+  </si>
+  <si>
+    <t>French Southern Territories (TF)</t>
+  </si>
+  <si>
+    <t>Togo (TG)</t>
+  </si>
+  <si>
+    <t>Thailand (TH)</t>
+  </si>
+  <si>
+    <t>Tajikistan (TJ)</t>
+  </si>
+  <si>
+    <t>Tokelau (TK)</t>
+  </si>
+  <si>
+    <t>Timor-Leste (TL)</t>
+  </si>
+  <si>
+    <t>Turkmenistan (TM)</t>
+  </si>
+  <si>
+    <t>Tunisia (TN)</t>
+  </si>
+  <si>
+    <t>Tonga (TO)</t>
+  </si>
+  <si>
+    <t>Turkey (TR)</t>
+  </si>
+  <si>
+    <t>Trinidad &amp; Tobago (TT)</t>
+  </si>
+  <si>
+    <t>Tuvalu (TV)</t>
+  </si>
+  <si>
+    <t>Taiwan (TW)</t>
+  </si>
+  <si>
+    <t>Tanzania (TZ)</t>
+  </si>
+  <si>
+    <t>Ukraine (UA)</t>
+  </si>
+  <si>
+    <t>Uganda (UG)</t>
+  </si>
+  <si>
+    <t>U.S. Outlying Islands (UM)</t>
+  </si>
+  <si>
+    <t>United Nations (UN)</t>
+  </si>
+  <si>
+    <t>United States (US)</t>
+  </si>
+  <si>
+    <t>Uruguay (UY)</t>
+  </si>
+  <si>
+    <t>Uzbekistan (UZ)</t>
+  </si>
+  <si>
+    <t>Vatican City (VA)</t>
+  </si>
+  <si>
+    <t>St. Vincent &amp; Grenadines (VC)</t>
+  </si>
+  <si>
+    <t>Venezuela (VE)</t>
+  </si>
+  <si>
+    <t>British Virgin Islands (VG)</t>
+  </si>
+  <si>
+    <t>U.S. Virgin Islands (VI)</t>
+  </si>
+  <si>
+    <t>Vietnam (VN)</t>
+  </si>
+  <si>
+    <t>Vanuatu (VU)</t>
+  </si>
+  <si>
+    <t>Wallis &amp; Futuna (WF)</t>
+  </si>
+  <si>
+    <t>Samoa (WS)</t>
+  </si>
+  <si>
+    <t>Kosovo (XK)</t>
+  </si>
+  <si>
+    <t>Yemen (YE)</t>
+  </si>
+  <si>
+    <t>Mayotte (YT)</t>
+  </si>
+  <si>
+    <t>South Africa (ZA)</t>
+  </si>
+  <si>
+    <t>Zambia (ZM)</t>
+  </si>
+  <si>
+    <t>Zimbabwe (ZW)</t>
+  </si>
+  <si>
+    <t>England (ENGLAND)</t>
+  </si>
+  <si>
+    <t>Scotland (SCOTLAND)</t>
+  </si>
+  <si>
+    <t>Wales (WALES)</t>
+  </si>
+  <si>
+    <t>Bulk Carrier</t>
+  </si>
+  <si>
+    <t>General Cargo</t>
+  </si>
+  <si>
+    <t>Container Ship</t>
+  </si>
+  <si>
+    <t>Reefer</t>
+  </si>
+  <si>
+    <t>Ro-Ro</t>
+  </si>
+  <si>
+    <t>Vehicles Carrier</t>
+  </si>
+  <si>
+    <t>Cement Carrier</t>
+  </si>
+  <si>
+    <t>Wood Chips Carrier</t>
+  </si>
+  <si>
+    <t>Urea Carrier</t>
+  </si>
+  <si>
+    <t>Aggregates Carrier</t>
+  </si>
+  <si>
+    <t>Limestone Carrier</t>
+  </si>
+  <si>
+    <t>Landing Craft</t>
+  </si>
+  <si>
+    <t>Livestock Carrier</t>
+  </si>
+  <si>
+    <t>Heavy Load Carrier</t>
+  </si>
+  <si>
+    <t>Crude Oil Tanker</t>
+  </si>
+  <si>
+    <t>Oil Products Tanker</t>
+  </si>
+  <si>
+    <t>Chemical/Oil Tanker</t>
+  </si>
+  <si>
+    <t>LNG Tanker</t>
+  </si>
+  <si>
+    <t>LPG Tanker</t>
+  </si>
+  <si>
+    <t>Asphalt/Bitumen</t>
+  </si>
+  <si>
+    <t>Bunkering Tanker</t>
+  </si>
+  <si>
+    <t>FSO/FPSO</t>
+  </si>
+  <si>
+    <t>Other Tanker</t>
+  </si>
+  <si>
+    <t>Cruise Ship</t>
+  </si>
+  <si>
+    <t>Passenger/Cargo Ship</t>
+  </si>
+  <si>
+    <t>Passenger/Ro-Ro Ship</t>
+  </si>
+  <si>
+    <t>Passenger Ship</t>
+  </si>
+  <si>
+    <t>Fishing ships</t>
+  </si>
+  <si>
+    <t>Yachts/Sailing Vessels</t>
+  </si>
+  <si>
+    <t>SAR/Military</t>
+  </si>
+  <si>
+    <t>High speed crafts</t>
+  </si>
+  <si>
+    <t>Other type/ Auxiliary</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>VesselTypes</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Promoted</t>
+  </si>
+  <si>
+    <t>Resigned</t>
+  </si>
+  <si>
+    <t>Shore Job</t>
+  </si>
+  <si>
+    <t>Short Contract</t>
+  </si>
+  <si>
+    <t>Transfer</t>
+  </si>
+  <si>
+    <t>Vessel Name Change</t>
+  </si>
+  <si>
+    <t>Vessel Sold</t>
+  </si>
+  <si>
+    <t>Vessel Scraped</t>
   </si>
 </sst>
 </file>
@@ -538,7 +1638,7 @@
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -696,8 +1796,48 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -716,8 +1856,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -971,81 +2117,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
       <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1056,7 +2137,7 @@
       <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1069,7 +2150,7 @@
       <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1084,7 +2165,7 @@
       <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1099,7 +2180,167 @@
       <top style="hair">
         <color indexed="64"/>
       </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1109,7 +2350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1675,91 +2916,407 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2281,8 +3838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD7EDC8-E30E-4611-A81B-52DA85E83C43}">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:G18"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4387,7 +5944,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Rank" error="Please Enter / Select a valid Rank Name from the List..." xr:uid="{11CFF417-DBB4-40E0-AF2A-B0DE2BFB6868}">
           <x14:formula1>
-            <xm:f>'Data Values'!$A$2:$A$26</xm:f>
+            <xm:f>'Data Values'!$A$2:$A$27</xm:f>
           </x14:formula1>
           <xm:sqref>B15:G15</xm:sqref>
         </x14:dataValidation>
@@ -4399,10 +5956,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC067019-9E8F-42C6-9301-6F73926F5B81}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4886,9 +6443,474 @@
       <c r="I38" s="202"/>
       <c r="J38" s="203"/>
     </row>
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="205" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" s="206"/>
+      <c r="C40" s="206"/>
+      <c r="D40" s="207" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" s="208" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="209"/>
+      <c r="G40" s="210" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="208" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" s="209"/>
+      <c r="J40" s="211" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="212" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41" s="213"/>
+      <c r="C41" s="213"/>
+      <c r="D41" s="184"/>
+      <c r="E41" s="214"/>
+      <c r="F41" s="215"/>
+      <c r="G41" s="190"/>
+      <c r="H41" s="214"/>
+      <c r="I41" s="215"/>
+      <c r="J41" s="216"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="212" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" s="213"/>
+      <c r="C42" s="213"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="214"/>
+      <c r="F42" s="215"/>
+      <c r="G42" s="190"/>
+      <c r="H42" s="214"/>
+      <c r="I42" s="215"/>
+      <c r="J42" s="216"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="212" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" s="213"/>
+      <c r="C43" s="213"/>
+      <c r="D43" s="198"/>
+      <c r="E43" s="217"/>
+      <c r="F43" s="218"/>
+      <c r="G43" s="200"/>
+      <c r="H43" s="217"/>
+      <c r="I43" s="218"/>
+      <c r="J43" s="219"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="59"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="220" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" s="221"/>
+      <c r="C45" s="221"/>
+      <c r="D45" s="221"/>
+      <c r="E45" s="221"/>
+      <c r="F45" s="221"/>
+      <c r="G45" s="221"/>
+      <c r="H45" s="221"/>
+      <c r="I45" s="221"/>
+      <c r="J45" s="222"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="223" t="s">
+        <v>158</v>
+      </c>
+      <c r="B46" s="224"/>
+      <c r="C46" s="224"/>
+      <c r="D46" s="224"/>
+      <c r="E46" s="225"/>
+      <c r="F46" s="226" t="s">
+        <v>159</v>
+      </c>
+      <c r="G46" s="227" t="s">
+        <v>160</v>
+      </c>
+      <c r="H46" s="228" t="s">
+        <v>161</v>
+      </c>
+      <c r="I46" s="228"/>
+      <c r="J46" s="229"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="230"/>
+      <c r="B47" s="231"/>
+      <c r="C47" s="231"/>
+      <c r="D47" s="231"/>
+      <c r="E47" s="232"/>
+      <c r="F47" s="185"/>
+      <c r="G47" s="190"/>
+      <c r="H47" s="233" t="s">
+        <v>181</v>
+      </c>
+      <c r="I47" s="233"/>
+      <c r="J47" s="234"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="235"/>
+      <c r="B48" s="236"/>
+      <c r="C48" s="236"/>
+      <c r="D48" s="236"/>
+      <c r="E48" s="237"/>
+      <c r="F48" s="199"/>
+      <c r="G48" s="200"/>
+      <c r="H48" s="233" t="s">
+        <v>179</v>
+      </c>
+      <c r="I48" s="233"/>
+      <c r="J48" s="234"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="59"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="220" t="s">
+        <v>162</v>
+      </c>
+      <c r="B50" s="221"/>
+      <c r="C50" s="221"/>
+      <c r="D50" s="221"/>
+      <c r="E50" s="221"/>
+      <c r="F50" s="221"/>
+      <c r="G50" s="221"/>
+      <c r="H50" s="221"/>
+      <c r="I50" s="221"/>
+      <c r="J50" s="222"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="223" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="224"/>
+      <c r="C51" s="224"/>
+      <c r="D51" s="224"/>
+      <c r="E51" s="225"/>
+      <c r="F51" s="226" t="s">
+        <v>159</v>
+      </c>
+      <c r="G51" s="227" t="s">
+        <v>160</v>
+      </c>
+      <c r="H51" s="228" t="s">
+        <v>161</v>
+      </c>
+      <c r="I51" s="228"/>
+      <c r="J51" s="229"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="230"/>
+      <c r="B52" s="231"/>
+      <c r="C52" s="231"/>
+      <c r="D52" s="231"/>
+      <c r="E52" s="232"/>
+      <c r="F52" s="185"/>
+      <c r="G52" s="190"/>
+      <c r="H52" s="233" t="s">
+        <v>181</v>
+      </c>
+      <c r="I52" s="233"/>
+      <c r="J52" s="234"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="235"/>
+      <c r="B53" s="236"/>
+      <c r="C53" s="236"/>
+      <c r="D53" s="236"/>
+      <c r="E53" s="237"/>
+      <c r="F53" s="199"/>
+      <c r="G53" s="200"/>
+      <c r="H53" s="233" t="s">
+        <v>179</v>
+      </c>
+      <c r="I53" s="233"/>
+      <c r="J53" s="234"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="59"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="59"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="220" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" s="221"/>
+      <c r="C55" s="221"/>
+      <c r="D55" s="221"/>
+      <c r="E55" s="221"/>
+      <c r="F55" s="221"/>
+      <c r="G55" s="221"/>
+      <c r="H55" s="221"/>
+      <c r="I55" s="221"/>
+      <c r="J55" s="222"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="238" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" s="239"/>
+      <c r="C56" s="239"/>
+      <c r="D56" s="239"/>
+      <c r="E56" s="239"/>
+      <c r="F56" s="239"/>
+      <c r="G56" s="239"/>
+      <c r="H56" s="240"/>
+      <c r="I56" s="240"/>
+      <c r="J56" s="241"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="242"/>
+      <c r="B57" s="243"/>
+      <c r="C57" s="243"/>
+      <c r="D57" s="243"/>
+      <c r="E57" s="243"/>
+      <c r="F57" s="243"/>
+      <c r="G57" s="243"/>
+      <c r="H57" s="243"/>
+      <c r="I57" s="243"/>
+      <c r="J57" s="244"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="242" t="s">
+        <v>166</v>
+      </c>
+      <c r="B58" s="243"/>
+      <c r="C58" s="243"/>
+      <c r="D58" s="243"/>
+      <c r="E58" s="243"/>
+      <c r="F58" s="243"/>
+      <c r="G58" s="245" t="s">
+        <v>167</v>
+      </c>
+      <c r="H58" s="245"/>
+      <c r="I58" s="245"/>
+      <c r="J58" s="246"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="247"/>
+      <c r="B59" s="248"/>
+      <c r="C59" s="248"/>
+      <c r="D59" s="248"/>
+      <c r="E59" s="248"/>
+      <c r="F59" s="248"/>
+      <c r="G59" s="249"/>
+      <c r="H59" s="249"/>
+      <c r="I59" s="249"/>
+      <c r="J59" s="250"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="242"/>
+      <c r="B60" s="243"/>
+      <c r="C60" s="243"/>
+      <c r="D60" s="243"/>
+      <c r="E60" s="243"/>
+      <c r="F60" s="243"/>
+      <c r="G60" s="243"/>
+      <c r="H60" s="243"/>
+      <c r="I60" s="243"/>
+      <c r="J60" s="244"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="242" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61" s="243"/>
+      <c r="C61" s="243"/>
+      <c r="D61" s="243"/>
+      <c r="E61" s="243"/>
+      <c r="F61" s="243"/>
+      <c r="G61" s="243"/>
+      <c r="H61" s="243"/>
+      <c r="I61" s="243"/>
+      <c r="J61" s="244"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="251"/>
+      <c r="B62" s="239"/>
+      <c r="C62" s="239"/>
+      <c r="D62" s="239"/>
+      <c r="E62" s="239"/>
+      <c r="F62" s="239"/>
+      <c r="G62" s="239"/>
+      <c r="H62" s="239"/>
+      <c r="I62" s="239"/>
+      <c r="J62" s="252"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="251"/>
+      <c r="B63" s="239"/>
+      <c r="C63" s="239"/>
+      <c r="D63" s="239"/>
+      <c r="E63" s="239"/>
+      <c r="F63" s="239"/>
+      <c r="G63" s="239"/>
+      <c r="H63" s="239"/>
+      <c r="I63" s="239"/>
+      <c r="J63" s="252"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="238" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" s="239"/>
+      <c r="C64" s="239"/>
+      <c r="D64" s="239"/>
+      <c r="E64" s="239"/>
+      <c r="F64" s="239"/>
+      <c r="G64" s="239"/>
+      <c r="H64" s="240"/>
+      <c r="I64" s="240"/>
+      <c r="J64" s="241"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="238" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65" s="239"/>
+      <c r="C65" s="239"/>
+      <c r="D65" s="239"/>
+      <c r="E65" s="239"/>
+      <c r="F65" s="239"/>
+      <c r="G65" s="239"/>
+      <c r="H65" s="240"/>
+      <c r="I65" s="240"/>
+      <c r="J65" s="241"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="253"/>
+      <c r="B66" s="254"/>
+      <c r="C66" s="254"/>
+      <c r="D66" s="254"/>
+      <c r="E66" s="254"/>
+      <c r="F66" s="254"/>
+      <c r="G66" s="254"/>
+      <c r="H66" s="254"/>
+      <c r="I66" s="254"/>
+      <c r="J66" s="255"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="238" t="s">
+        <v>171</v>
+      </c>
+      <c r="B67" s="256"/>
+      <c r="C67" s="256"/>
+      <c r="D67" s="256"/>
+      <c r="E67" s="257"/>
+      <c r="F67" s="239" t="s">
+        <v>172</v>
+      </c>
+      <c r="G67" s="239"/>
+      <c r="H67" s="239"/>
+      <c r="I67" s="239"/>
+      <c r="J67" s="258"/>
+    </row>
+    <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="259" t="s">
+        <v>173</v>
+      </c>
+      <c r="B68" s="260"/>
+      <c r="C68" s="260"/>
+      <c r="D68" s="260"/>
+      <c r="E68" s="261"/>
+      <c r="F68" s="262" t="s">
+        <v>174</v>
+      </c>
+      <c r="G68" s="262"/>
+      <c r="H68" s="262"/>
+      <c r="I68" s="262"/>
+      <c r="J68" s="263"/>
+    </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="86">
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="H42:I42"/>
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="H40:I40"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A6:C6"/>
@@ -4927,7 +6949,7 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <dataValidations count="36">
+  <dataValidations count="42">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Date" error="Please check the Date entered. Date format has to be DD-MMM-YY, e.g. 31-Jan-08..." promptTitle="Date Format" prompt="Please Enter Date in DD-MM-YYYY Format !!!" sqref="F2:G38" xr:uid="{1C93B122-105A-4AFF-BF81-27E0912B3B72}">
       <formula1>1</formula1>
     </dataValidation>
@@ -5037,16 +7059,46 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please Enter / Select a valid Entry from the List..." sqref="E2:E38" xr:uid="{022BA75B-ECFC-4922-9814-B31639893F8A}">
       <formula1>$IL$65525:$IL$65527</formula1>
     </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H43:I43" xr:uid="{DE2D4A59-DB67-4638-BA8C-FC7D2757BA8C}">
+      <formula1>(COUNT(MATCH(CODE(MID(H43,ROW(INDIRECT("1:"&amp;LEN(H43))),1)),ROW(48:56),0)))=0</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H42:I42" xr:uid="{8E7F426D-58C6-46D5-9017-218010AC040E}">
+      <formula1>(COUNT(MATCH(CODE(MID(H42,ROW(INDIRECT("1:"&amp;LEN(H42))),1)),ROW(48:56),0)))=0</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Entry !!!" error="Please make a valid Text Entry..." sqref="H41:I41" xr:uid="{05572840-17D0-476F-866E-9C2560FD753E}">
+      <formula1>(COUNT(MATCH(CODE(MID(H41,ROW(INDIRECT("1:"&amp;LEN(H41))),1)),ROW(48:56),0)))=0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Rank" error="Please Enter / Select a valid Opion from the List..." sqref="H56:J56" xr:uid="{54388C12-51F6-4637-8F72-89693D82C7A2}">
+      <formula1>$IM$65525:$IV$65526</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please Select a valid Option from the List..." sqref="E67:E68 H64:J65 J67:J68" xr:uid="{C6DDDD04-A8D2-4AE7-A461-AFDDEE2D80DE}">
+      <formula1>$IM$65525:$IM$65526</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Date" error="Please check the Date entered. Date format has to be DD-MMM-YY, e.g. 31-Jan-08..." sqref="J41:J43 G41:G43" xr:uid="{647C47BE-46C9-4614-A9E0-EBFFA5D6CAAC}">
+      <formula1>1</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{24CB796B-9142-465D-A1BA-C635846241D1}">
           <x14:formula1>
             <xm:f>'Data Values'!$D$2:$D$11</xm:f>
           </x14:formula1>
           <xm:sqref>A2:C33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Entry..." error="Please Enter / Select a valid Entry from the List..." xr:uid="{68167FCA-6055-4595-B83C-01DA0F56BBFD}">
+          <x14:formula1>
+            <xm:f>'Data Values'!$E$2:$E$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>A41:C43</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1E8F46A9-F878-4216-BD66-27ACC5E7F626}">
+          <x14:formula1>
+            <xm:f>'Data Values'!$F$2:$F$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>H47:J48 H52:J53</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5055,22 +7107,1191 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11292C7-7A77-410F-B664-D642BCB1ABD9}">
+  <dimension ref="A1:O50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="264"/>
+      <c r="B1" s="265" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="265"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
+      <c r="H1" s="265"/>
+      <c r="I1" s="265"/>
+      <c r="J1" s="265"/>
+      <c r="K1" s="265"/>
+      <c r="L1" s="265"/>
+      <c r="M1" s="265"/>
+      <c r="N1" s="265"/>
+      <c r="O1" s="265"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="264"/>
+      <c r="B2" s="265"/>
+      <c r="C2" s="265"/>
+      <c r="D2" s="265"/>
+      <c r="E2" s="265"/>
+      <c r="F2" s="265"/>
+      <c r="G2" s="265"/>
+      <c r="H2" s="265"/>
+      <c r="I2" s="265"/>
+      <c r="J2" s="265"/>
+      <c r="K2" s="265"/>
+      <c r="L2" s="265"/>
+      <c r="M2" s="265"/>
+      <c r="N2" s="265"/>
+      <c r="O2" s="265"/>
+    </row>
+    <row r="3" spans="1:15" ht="36" x14ac:dyDescent="0.25">
+      <c r="A3" s="266" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="267" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="267" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="267" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" s="267" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="267" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" s="267" t="s">
+        <v>188</v>
+      </c>
+      <c r="H3" s="267" t="s">
+        <v>189</v>
+      </c>
+      <c r="I3" s="268" t="s">
+        <v>190</v>
+      </c>
+      <c r="J3" s="267" t="s">
+        <v>191</v>
+      </c>
+      <c r="K3" s="267" t="s">
+        <v>192</v>
+      </c>
+      <c r="L3" s="267" t="s">
+        <v>193</v>
+      </c>
+      <c r="M3" s="267" t="s">
+        <v>160</v>
+      </c>
+      <c r="N3" s="267" t="s">
+        <v>194</v>
+      </c>
+      <c r="O3" s="269" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="270">
+        <v>1</v>
+      </c>
+      <c r="B4" s="271"/>
+      <c r="C4" s="271"/>
+      <c r="D4" s="272"/>
+      <c r="E4" s="273"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="274"/>
+      <c r="H4" s="274"/>
+      <c r="I4" s="275"/>
+      <c r="J4" s="273"/>
+      <c r="K4" s="273"/>
+      <c r="L4" s="276"/>
+      <c r="M4" s="276"/>
+      <c r="N4" s="277" t="str">
+        <f t="shared" ref="N4:N48" si="0">IF(OR(L4="",M4=""),"",DiffDate(L4,M4))</f>
+        <v/>
+      </c>
+      <c r="O4" s="278"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="270">
+        <v>2</v>
+      </c>
+      <c r="B5" s="271"/>
+      <c r="C5" s="271"/>
+      <c r="D5" s="272"/>
+      <c r="E5" s="273"/>
+      <c r="F5" s="271"/>
+      <c r="G5" s="274"/>
+      <c r="H5" s="274"/>
+      <c r="I5" s="275"/>
+      <c r="J5" s="273"/>
+      <c r="K5" s="273"/>
+      <c r="L5" s="276"/>
+      <c r="M5" s="276"/>
+      <c r="N5" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O5" s="278"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="270">
+        <v>3</v>
+      </c>
+      <c r="B6" s="271"/>
+      <c r="C6" s="271"/>
+      <c r="D6" s="272"/>
+      <c r="E6" s="273"/>
+      <c r="F6" s="271"/>
+      <c r="G6" s="274"/>
+      <c r="H6" s="274"/>
+      <c r="I6" s="275"/>
+      <c r="J6" s="273"/>
+      <c r="K6" s="273"/>
+      <c r="L6" s="276"/>
+      <c r="M6" s="276"/>
+      <c r="N6" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O6" s="278"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="270">
+        <v>4</v>
+      </c>
+      <c r="B7" s="271"/>
+      <c r="C7" s="271"/>
+      <c r="D7" s="272"/>
+      <c r="E7" s="273"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="274"/>
+      <c r="H7" s="274"/>
+      <c r="I7" s="275"/>
+      <c r="J7" s="273"/>
+      <c r="K7" s="273"/>
+      <c r="L7" s="276"/>
+      <c r="M7" s="276"/>
+      <c r="N7" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O7" s="278"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="270">
+        <v>5</v>
+      </c>
+      <c r="B8" s="271"/>
+      <c r="C8" s="271"/>
+      <c r="D8" s="272"/>
+      <c r="E8" s="273"/>
+      <c r="F8" s="271"/>
+      <c r="G8" s="274"/>
+      <c r="H8" s="274"/>
+      <c r="I8" s="275"/>
+      <c r="J8" s="273"/>
+      <c r="K8" s="273"/>
+      <c r="L8" s="276"/>
+      <c r="M8" s="276"/>
+      <c r="N8" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O8" s="278"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="270">
+        <v>6</v>
+      </c>
+      <c r="B9" s="271"/>
+      <c r="C9" s="271"/>
+      <c r="D9" s="272"/>
+      <c r="E9" s="273"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="279"/>
+      <c r="H9" s="274"/>
+      <c r="I9" s="275"/>
+      <c r="J9" s="273"/>
+      <c r="K9" s="273"/>
+      <c r="L9" s="276"/>
+      <c r="M9" s="276"/>
+      <c r="N9" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O9" s="278"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="270">
+        <v>7</v>
+      </c>
+      <c r="B10" s="271"/>
+      <c r="C10" s="271"/>
+      <c r="D10" s="272"/>
+      <c r="E10" s="273"/>
+      <c r="F10" s="271"/>
+      <c r="G10" s="274"/>
+      <c r="H10" s="274"/>
+      <c r="I10" s="274"/>
+      <c r="J10" s="280"/>
+      <c r="K10" s="273"/>
+      <c r="L10" s="276"/>
+      <c r="M10" s="276"/>
+      <c r="N10" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O10" s="278"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="270">
+        <v>8</v>
+      </c>
+      <c r="B11" s="271"/>
+      <c r="C11" s="271"/>
+      <c r="D11" s="272"/>
+      <c r="E11" s="273"/>
+      <c r="F11" s="271"/>
+      <c r="G11" s="274"/>
+      <c r="H11" s="274"/>
+      <c r="I11" s="275"/>
+      <c r="J11" s="273"/>
+      <c r="K11" s="273"/>
+      <c r="L11" s="276"/>
+      <c r="M11" s="276"/>
+      <c r="N11" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O11" s="278"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="270">
+        <v>9</v>
+      </c>
+      <c r="B12" s="271"/>
+      <c r="C12" s="271"/>
+      <c r="D12" s="272"/>
+      <c r="E12" s="273"/>
+      <c r="F12" s="271"/>
+      <c r="G12" s="274"/>
+      <c r="H12" s="274"/>
+      <c r="I12" s="275"/>
+      <c r="J12" s="273"/>
+      <c r="K12" s="273"/>
+      <c r="L12" s="276"/>
+      <c r="M12" s="276"/>
+      <c r="N12" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O12" s="278"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="270">
+        <v>10</v>
+      </c>
+      <c r="B13" s="271"/>
+      <c r="C13" s="271"/>
+      <c r="D13" s="272"/>
+      <c r="E13" s="273"/>
+      <c r="F13" s="271"/>
+      <c r="G13" s="274"/>
+      <c r="H13" s="274"/>
+      <c r="I13" s="275"/>
+      <c r="J13" s="273"/>
+      <c r="K13" s="273"/>
+      <c r="L13" s="276"/>
+      <c r="M13" s="276"/>
+      <c r="N13" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O13" s="278"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="270">
+        <v>11</v>
+      </c>
+      <c r="B14" s="271"/>
+      <c r="C14" s="271"/>
+      <c r="D14" s="272"/>
+      <c r="E14" s="273"/>
+      <c r="F14" s="271"/>
+      <c r="G14" s="274"/>
+      <c r="H14" s="274"/>
+      <c r="I14" s="275"/>
+      <c r="J14" s="273"/>
+      <c r="K14" s="273"/>
+      <c r="L14" s="276"/>
+      <c r="M14" s="276"/>
+      <c r="N14" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O14" s="278"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="270">
+        <v>12</v>
+      </c>
+      <c r="B15" s="271"/>
+      <c r="C15" s="271"/>
+      <c r="D15" s="272"/>
+      <c r="E15" s="273"/>
+      <c r="F15" s="271"/>
+      <c r="G15" s="274"/>
+      <c r="H15" s="274"/>
+      <c r="I15" s="275"/>
+      <c r="J15" s="273"/>
+      <c r="K15" s="273"/>
+      <c r="L15" s="276"/>
+      <c r="M15" s="276"/>
+      <c r="N15" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O15" s="278"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="270">
+        <v>13</v>
+      </c>
+      <c r="B16" s="271"/>
+      <c r="C16" s="271"/>
+      <c r="D16" s="272"/>
+      <c r="E16" s="273"/>
+      <c r="F16" s="271"/>
+      <c r="G16" s="274"/>
+      <c r="H16" s="274"/>
+      <c r="I16" s="275"/>
+      <c r="J16" s="273"/>
+      <c r="K16" s="273"/>
+      <c r="L16" s="276"/>
+      <c r="M16" s="276"/>
+      <c r="N16" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O16" s="278"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="270">
+        <v>14</v>
+      </c>
+      <c r="B17" s="271"/>
+      <c r="C17" s="271"/>
+      <c r="D17" s="272"/>
+      <c r="E17" s="273"/>
+      <c r="F17" s="271"/>
+      <c r="G17" s="274"/>
+      <c r="H17" s="274"/>
+      <c r="I17" s="275"/>
+      <c r="J17" s="273"/>
+      <c r="K17" s="273"/>
+      <c r="L17" s="276"/>
+      <c r="M17" s="276"/>
+      <c r="N17" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O17" s="278"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="270">
+        <v>15</v>
+      </c>
+      <c r="B18" s="271"/>
+      <c r="C18" s="271"/>
+      <c r="D18" s="272"/>
+      <c r="E18" s="273"/>
+      <c r="F18" s="271"/>
+      <c r="G18" s="274"/>
+      <c r="H18" s="274"/>
+      <c r="I18" s="275"/>
+      <c r="J18" s="273"/>
+      <c r="K18" s="273"/>
+      <c r="L18" s="276"/>
+      <c r="M18" s="276"/>
+      <c r="N18" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O18" s="278"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="270">
+        <v>16</v>
+      </c>
+      <c r="B19" s="271"/>
+      <c r="C19" s="271"/>
+      <c r="D19" s="272"/>
+      <c r="E19" s="273"/>
+      <c r="F19" s="271"/>
+      <c r="G19" s="274"/>
+      <c r="H19" s="274"/>
+      <c r="I19" s="275"/>
+      <c r="J19" s="273"/>
+      <c r="K19" s="273"/>
+      <c r="L19" s="276"/>
+      <c r="M19" s="276"/>
+      <c r="N19" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O19" s="278"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="270">
+        <v>17</v>
+      </c>
+      <c r="B20" s="271"/>
+      <c r="C20" s="271"/>
+      <c r="D20" s="272"/>
+      <c r="E20" s="273"/>
+      <c r="F20" s="271"/>
+      <c r="G20" s="274"/>
+      <c r="H20" s="274"/>
+      <c r="I20" s="275"/>
+      <c r="J20" s="273"/>
+      <c r="K20" s="273"/>
+      <c r="L20" s="276"/>
+      <c r="M20" s="276"/>
+      <c r="N20" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O20" s="278"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="270">
+        <v>18</v>
+      </c>
+      <c r="B21" s="271"/>
+      <c r="C21" s="271"/>
+      <c r="D21" s="272"/>
+      <c r="E21" s="273"/>
+      <c r="F21" s="271"/>
+      <c r="G21" s="274"/>
+      <c r="H21" s="274"/>
+      <c r="I21" s="275"/>
+      <c r="J21" s="273"/>
+      <c r="K21" s="273"/>
+      <c r="L21" s="276"/>
+      <c r="M21" s="276"/>
+      <c r="N21" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O21" s="278"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="270">
+        <v>19</v>
+      </c>
+      <c r="B22" s="271"/>
+      <c r="C22" s="271"/>
+      <c r="D22" s="272"/>
+      <c r="E22" s="273"/>
+      <c r="F22" s="271"/>
+      <c r="G22" s="274"/>
+      <c r="H22" s="274"/>
+      <c r="I22" s="275"/>
+      <c r="J22" s="273"/>
+      <c r="K22" s="273"/>
+      <c r="L22" s="276"/>
+      <c r="M22" s="276"/>
+      <c r="N22" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O22" s="278"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="270">
+        <v>20</v>
+      </c>
+      <c r="B23" s="271"/>
+      <c r="C23" s="271"/>
+      <c r="D23" s="272"/>
+      <c r="E23" s="273"/>
+      <c r="F23" s="271"/>
+      <c r="G23" s="274"/>
+      <c r="H23" s="274"/>
+      <c r="I23" s="275"/>
+      <c r="J23" s="273"/>
+      <c r="K23" s="273"/>
+      <c r="L23" s="276"/>
+      <c r="M23" s="276"/>
+      <c r="N23" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O23" s="278"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="270">
+        <v>21</v>
+      </c>
+      <c r="B24" s="271"/>
+      <c r="C24" s="271"/>
+      <c r="D24" s="272"/>
+      <c r="E24" s="273"/>
+      <c r="F24" s="271"/>
+      <c r="G24" s="274"/>
+      <c r="H24" s="274"/>
+      <c r="I24" s="275"/>
+      <c r="J24" s="273"/>
+      <c r="K24" s="273"/>
+      <c r="L24" s="276"/>
+      <c r="M24" s="276"/>
+      <c r="N24" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O24" s="278"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="270">
+        <v>22</v>
+      </c>
+      <c r="B25" s="271"/>
+      <c r="C25" s="271"/>
+      <c r="D25" s="272"/>
+      <c r="E25" s="273"/>
+      <c r="F25" s="271"/>
+      <c r="G25" s="274"/>
+      <c r="H25" s="274"/>
+      <c r="I25" s="275"/>
+      <c r="J25" s="273"/>
+      <c r="K25" s="273"/>
+      <c r="L25" s="276"/>
+      <c r="M25" s="276"/>
+      <c r="N25" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O25" s="278"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="270">
+        <v>23</v>
+      </c>
+      <c r="B26" s="271"/>
+      <c r="C26" s="271"/>
+      <c r="D26" s="272"/>
+      <c r="E26" s="273"/>
+      <c r="F26" s="271"/>
+      <c r="G26" s="274"/>
+      <c r="H26" s="274"/>
+      <c r="I26" s="275"/>
+      <c r="J26" s="273"/>
+      <c r="K26" s="273"/>
+      <c r="L26" s="276"/>
+      <c r="M26" s="276"/>
+      <c r="N26" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O26" s="278"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="270">
+        <v>24</v>
+      </c>
+      <c r="B27" s="271"/>
+      <c r="C27" s="271"/>
+      <c r="D27" s="272"/>
+      <c r="E27" s="273"/>
+      <c r="F27" s="271"/>
+      <c r="G27" s="274"/>
+      <c r="H27" s="274"/>
+      <c r="I27" s="275"/>
+      <c r="J27" s="273"/>
+      <c r="K27" s="273"/>
+      <c r="L27" s="276"/>
+      <c r="M27" s="276"/>
+      <c r="N27" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O27" s="278"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="281">
+        <v>25</v>
+      </c>
+      <c r="B28" s="282"/>
+      <c r="C28" s="282"/>
+      <c r="D28" s="272"/>
+      <c r="E28" s="273"/>
+      <c r="F28" s="271"/>
+      <c r="G28" s="284"/>
+      <c r="H28" s="284"/>
+      <c r="I28" s="285"/>
+      <c r="J28" s="283"/>
+      <c r="K28" s="283"/>
+      <c r="L28" s="286"/>
+      <c r="M28" s="286"/>
+      <c r="N28" s="287" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O28" s="278"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="288">
+        <v>26</v>
+      </c>
+      <c r="B29" s="289"/>
+      <c r="C29" s="289"/>
+      <c r="D29" s="272"/>
+      <c r="E29" s="273"/>
+      <c r="F29" s="271"/>
+      <c r="G29" s="291"/>
+      <c r="H29" s="291"/>
+      <c r="I29" s="292"/>
+      <c r="J29" s="290"/>
+      <c r="K29" s="290"/>
+      <c r="L29" s="293"/>
+      <c r="M29" s="293"/>
+      <c r="N29" s="294" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O29" s="278"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="270">
+        <v>27</v>
+      </c>
+      <c r="B30" s="271"/>
+      <c r="C30" s="271"/>
+      <c r="D30" s="272"/>
+      <c r="E30" s="273"/>
+      <c r="F30" s="271"/>
+      <c r="G30" s="274"/>
+      <c r="H30" s="274"/>
+      <c r="I30" s="275"/>
+      <c r="J30" s="273"/>
+      <c r="K30" s="273"/>
+      <c r="L30" s="276"/>
+      <c r="M30" s="276"/>
+      <c r="N30" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O30" s="278"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="270">
+        <v>28</v>
+      </c>
+      <c r="B31" s="271"/>
+      <c r="C31" s="271"/>
+      <c r="D31" s="272"/>
+      <c r="E31" s="273"/>
+      <c r="F31" s="271"/>
+      <c r="G31" s="274"/>
+      <c r="H31" s="274"/>
+      <c r="I31" s="275"/>
+      <c r="J31" s="273"/>
+      <c r="K31" s="273"/>
+      <c r="L31" s="276"/>
+      <c r="M31" s="276"/>
+      <c r="N31" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O31" s="278"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="270">
+        <v>29</v>
+      </c>
+      <c r="B32" s="271"/>
+      <c r="C32" s="271"/>
+      <c r="D32" s="272"/>
+      <c r="E32" s="273"/>
+      <c r="F32" s="271"/>
+      <c r="G32" s="274"/>
+      <c r="H32" s="274"/>
+      <c r="I32" s="275"/>
+      <c r="J32" s="273"/>
+      <c r="K32" s="273"/>
+      <c r="L32" s="276"/>
+      <c r="M32" s="276"/>
+      <c r="N32" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O32" s="278"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="270">
+        <v>30</v>
+      </c>
+      <c r="B33" s="271"/>
+      <c r="C33" s="271"/>
+      <c r="D33" s="272"/>
+      <c r="E33" s="273"/>
+      <c r="F33" s="271"/>
+      <c r="G33" s="274"/>
+      <c r="H33" s="274"/>
+      <c r="I33" s="275"/>
+      <c r="J33" s="273"/>
+      <c r="K33" s="273"/>
+      <c r="L33" s="276"/>
+      <c r="M33" s="276"/>
+      <c r="N33" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O33" s="278"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="270">
+        <v>31</v>
+      </c>
+      <c r="B34" s="271"/>
+      <c r="C34" s="271"/>
+      <c r="D34" s="272"/>
+      <c r="E34" s="273"/>
+      <c r="F34" s="271"/>
+      <c r="G34" s="274"/>
+      <c r="H34" s="274"/>
+      <c r="I34" s="275"/>
+      <c r="J34" s="273"/>
+      <c r="K34" s="273"/>
+      <c r="L34" s="276"/>
+      <c r="M34" s="276"/>
+      <c r="N34" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O34" s="278"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="270">
+        <v>32</v>
+      </c>
+      <c r="B35" s="271"/>
+      <c r="C35" s="271"/>
+      <c r="D35" s="272"/>
+      <c r="E35" s="273"/>
+      <c r="F35" s="271"/>
+      <c r="G35" s="274"/>
+      <c r="H35" s="274"/>
+      <c r="I35" s="275"/>
+      <c r="J35" s="273"/>
+      <c r="K35" s="273"/>
+      <c r="L35" s="276"/>
+      <c r="M35" s="276"/>
+      <c r="N35" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O35" s="278"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="270">
+        <v>33</v>
+      </c>
+      <c r="B36" s="271"/>
+      <c r="C36" s="271"/>
+      <c r="D36" s="272"/>
+      <c r="E36" s="273"/>
+      <c r="F36" s="271"/>
+      <c r="G36" s="274"/>
+      <c r="H36" s="274"/>
+      <c r="I36" s="275"/>
+      <c r="J36" s="273"/>
+      <c r="K36" s="273"/>
+      <c r="L36" s="276"/>
+      <c r="M36" s="276"/>
+      <c r="N36" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O36" s="278"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="270">
+        <v>34</v>
+      </c>
+      <c r="B37" s="271"/>
+      <c r="C37" s="271"/>
+      <c r="D37" s="272"/>
+      <c r="E37" s="273"/>
+      <c r="F37" s="271"/>
+      <c r="G37" s="274"/>
+      <c r="H37" s="274"/>
+      <c r="I37" s="275"/>
+      <c r="J37" s="273"/>
+      <c r="K37" s="273"/>
+      <c r="L37" s="276"/>
+      <c r="M37" s="276"/>
+      <c r="N37" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O37" s="278"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="270">
+        <v>35</v>
+      </c>
+      <c r="B38" s="271"/>
+      <c r="C38" s="271"/>
+      <c r="D38" s="272"/>
+      <c r="E38" s="273"/>
+      <c r="F38" s="271"/>
+      <c r="G38" s="274"/>
+      <c r="H38" s="274"/>
+      <c r="I38" s="275"/>
+      <c r="J38" s="273"/>
+      <c r="K38" s="273"/>
+      <c r="L38" s="276"/>
+      <c r="M38" s="276"/>
+      <c r="N38" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O38" s="278"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="270">
+        <v>36</v>
+      </c>
+      <c r="B39" s="271"/>
+      <c r="C39" s="271"/>
+      <c r="D39" s="272"/>
+      <c r="E39" s="273"/>
+      <c r="F39" s="271"/>
+      <c r="G39" s="274"/>
+      <c r="H39" s="274"/>
+      <c r="I39" s="275"/>
+      <c r="J39" s="273"/>
+      <c r="K39" s="273"/>
+      <c r="L39" s="276"/>
+      <c r="M39" s="276"/>
+      <c r="N39" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O39" s="278"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="270">
+        <v>37</v>
+      </c>
+      <c r="B40" s="271"/>
+      <c r="C40" s="271"/>
+      <c r="D40" s="272"/>
+      <c r="E40" s="273"/>
+      <c r="F40" s="271"/>
+      <c r="G40" s="274"/>
+      <c r="H40" s="274"/>
+      <c r="I40" s="275"/>
+      <c r="J40" s="273"/>
+      <c r="K40" s="273"/>
+      <c r="L40" s="276"/>
+      <c r="M40" s="276"/>
+      <c r="N40" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O40" s="278"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="270">
+        <v>38</v>
+      </c>
+      <c r="B41" s="271"/>
+      <c r="C41" s="271"/>
+      <c r="D41" s="272"/>
+      <c r="E41" s="273"/>
+      <c r="F41" s="271"/>
+      <c r="G41" s="274"/>
+      <c r="H41" s="274"/>
+      <c r="I41" s="275"/>
+      <c r="J41" s="273"/>
+      <c r="K41" s="273"/>
+      <c r="L41" s="276"/>
+      <c r="M41" s="276"/>
+      <c r="N41" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O41" s="278"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="270">
+        <v>39</v>
+      </c>
+      <c r="B42" s="271"/>
+      <c r="C42" s="271"/>
+      <c r="D42" s="272"/>
+      <c r="E42" s="273"/>
+      <c r="F42" s="271"/>
+      <c r="G42" s="274"/>
+      <c r="H42" s="274"/>
+      <c r="I42" s="275"/>
+      <c r="J42" s="273"/>
+      <c r="K42" s="273"/>
+      <c r="L42" s="276"/>
+      <c r="M42" s="276"/>
+      <c r="N42" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O42" s="278"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="270">
+        <v>40</v>
+      </c>
+      <c r="B43" s="271"/>
+      <c r="C43" s="271"/>
+      <c r="D43" s="272"/>
+      <c r="E43" s="273"/>
+      <c r="F43" s="271"/>
+      <c r="G43" s="274"/>
+      <c r="H43" s="274"/>
+      <c r="I43" s="275"/>
+      <c r="J43" s="273"/>
+      <c r="K43" s="273"/>
+      <c r="L43" s="276"/>
+      <c r="M43" s="276"/>
+      <c r="N43" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O43" s="278"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="270">
+        <v>41</v>
+      </c>
+      <c r="B44" s="271"/>
+      <c r="C44" s="271"/>
+      <c r="D44" s="272"/>
+      <c r="E44" s="273"/>
+      <c r="F44" s="271"/>
+      <c r="G44" s="274"/>
+      <c r="H44" s="274"/>
+      <c r="I44" s="275"/>
+      <c r="J44" s="273"/>
+      <c r="K44" s="273"/>
+      <c r="L44" s="276"/>
+      <c r="M44" s="276"/>
+      <c r="N44" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O44" s="278"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="270">
+        <v>42</v>
+      </c>
+      <c r="B45" s="271"/>
+      <c r="C45" s="271"/>
+      <c r="D45" s="272"/>
+      <c r="E45" s="273"/>
+      <c r="F45" s="271"/>
+      <c r="G45" s="274"/>
+      <c r="H45" s="274"/>
+      <c r="I45" s="275"/>
+      <c r="J45" s="273"/>
+      <c r="K45" s="273"/>
+      <c r="L45" s="276"/>
+      <c r="M45" s="276"/>
+      <c r="N45" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O45" s="278"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="270">
+        <v>43</v>
+      </c>
+      <c r="B46" s="271"/>
+      <c r="C46" s="271"/>
+      <c r="D46" s="272"/>
+      <c r="E46" s="273"/>
+      <c r="F46" s="271"/>
+      <c r="G46" s="274"/>
+      <c r="H46" s="274"/>
+      <c r="I46" s="275"/>
+      <c r="J46" s="273"/>
+      <c r="K46" s="273"/>
+      <c r="L46" s="276"/>
+      <c r="M46" s="276"/>
+      <c r="N46" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O46" s="278"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="270">
+        <v>44</v>
+      </c>
+      <c r="B47" s="271"/>
+      <c r="C47" s="271"/>
+      <c r="D47" s="272"/>
+      <c r="E47" s="273"/>
+      <c r="F47" s="271"/>
+      <c r="G47" s="274"/>
+      <c r="H47" s="274"/>
+      <c r="I47" s="275"/>
+      <c r="J47" s="273"/>
+      <c r="K47" s="273"/>
+      <c r="L47" s="276"/>
+      <c r="M47" s="276"/>
+      <c r="N47" s="277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O47" s="278"/>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="281">
+        <v>45</v>
+      </c>
+      <c r="B48" s="282"/>
+      <c r="C48" s="282"/>
+      <c r="D48" s="272"/>
+      <c r="E48" s="273"/>
+      <c r="F48" s="271"/>
+      <c r="G48" s="284"/>
+      <c r="H48" s="284"/>
+      <c r="I48" s="285"/>
+      <c r="J48" s="283"/>
+      <c r="K48" s="283"/>
+      <c r="L48" s="286"/>
+      <c r="M48" s="286"/>
+      <c r="N48" s="287" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O48" s="278"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="264"/>
+      <c r="B49" s="264"/>
+      <c r="C49" s="264"/>
+      <c r="D49" s="264"/>
+      <c r="E49" s="264"/>
+      <c r="F49" s="264"/>
+      <c r="G49" s="264"/>
+      <c r="H49" s="264"/>
+      <c r="I49" s="264"/>
+      <c r="J49" s="264"/>
+      <c r="K49" s="264"/>
+      <c r="L49" s="264"/>
+      <c r="M49" s="264"/>
+      <c r="N49" s="264"/>
+      <c r="O49" s="264"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="264"/>
+      <c r="B50" s="295" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" s="295"/>
+      <c r="D50" s="295"/>
+      <c r="E50" s="264"/>
+      <c r="F50" s="264"/>
+      <c r="G50" s="264"/>
+      <c r="H50" s="264"/>
+      <c r="I50" s="264"/>
+      <c r="J50" s="264"/>
+      <c r="K50" s="264"/>
+      <c r="L50" s="264"/>
+      <c r="M50" s="264"/>
+      <c r="N50" s="264"/>
+      <c r="O50" s="264"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:O2"/>
+    <mergeCell ref="B50:D50"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please make valid Numeric entry without Space..." sqref="G4:I48" xr:uid="{54531CDD-C74F-4BBC-91B7-C75822159059}">
+      <formula1>1</formula1>
+      <formula2>9999999</formula2>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Date" error="Please check the Date entered. Date format has to be DD-MMM-YY, e.g. 31-Jan-08....." promptTitle="Date Format" prompt="Please Enter Date in DD-MM-YYYY Format !!!" sqref="L4:M48" xr:uid="{02F072C8-A009-4692-92DB-E60B22D8767C}">
+      <formula1>21916</formula1>
+      <formula2>73051</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please Enter / Select a valid Option from the List..." xr:uid="{20600700-11BB-4FF5-89AF-A1EA2C8305B6}">
+          <x14:formula1>
+            <xm:f>'Data Values'!$H$2:$H$35</xm:f>
+          </x14:formula1>
+          <xm:sqref>F4:F48</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please Enter / Select a valid Option from the List..." xr:uid="{BFFCF874-6A51-4184-BFF9-AD121AB26B6C}">
+          <x14:formula1>
+            <xm:f>'Data Values'!$G$2:$G$263</xm:f>
+          </x14:formula1>
+          <xm:sqref>E4:E48</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Reason" error="Please enter / select a valid Reason from the List..." xr:uid="{1E21CCB8-8E5B-46A1-8890-E64BAE58D83E}">
+          <x14:formula1>
+            <xm:f>'Data Values'!$I$2:$I$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>O4:O48</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please Enter / Select a valid Option from the List..." xr:uid="{0A43803D-B5D4-4C78-99EE-F2437C154AC0}">
+          <x14:formula1>
+            <xm:f>'Data Values'!$A$2:$A$27</xm:f>
+          </x14:formula1>
+          <xm:sqref>D4:D48</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA16C4FC-E745-4179-A969-B63C9D20A853}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:I263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I3" sqref="I3:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="204" t="s">
         <v>142</v>
       </c>
@@ -5083,21 +8304,39 @@
       <c r="D1" s="204" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>108</v>
-      </c>
+      <c r="E1" s="204" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="204" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="204" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1" s="204" t="s">
+        <v>492</v>
+      </c>
+      <c r="I1" s="204" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>121</v>
       </c>
       <c r="C2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
         <v>122</v>
@@ -5108,10 +8347,25 @@
       <c r="D3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H3" t="s">
+        <v>459</v>
+      </c>
+      <c r="I3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
         <v>123</v>
@@ -5122,10 +8376,22 @@
       <c r="D4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H4" t="s">
+        <v>460</v>
+      </c>
+      <c r="I4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
         <v>124</v>
@@ -5136,10 +8402,22 @@
       <c r="D5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H5" t="s">
+        <v>461</v>
+      </c>
+      <c r="I5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
         <v>120</v>
@@ -5150,10 +8428,19 @@
       <c r="D6" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H6" t="s">
+        <v>462</v>
+      </c>
+      <c r="I6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
         <v>126</v>
@@ -5161,10 +8448,19 @@
       <c r="D7" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H7" t="s">
+        <v>463</v>
+      </c>
+      <c r="I7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
         <v>127</v>
@@ -5172,10 +8468,19 @@
       <c r="D8" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>203</v>
+      </c>
+      <c r="H8" t="s">
+        <v>464</v>
+      </c>
+      <c r="I8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="204" t="s">
         <v>150</v>
@@ -5183,10 +8488,19 @@
       <c r="D9" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" t="s">
+        <v>465</v>
+      </c>
+      <c r="I9" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
         <v>131</v>
@@ -5194,10 +8508,19 @@
       <c r="D10" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>205</v>
+      </c>
+      <c r="H10" t="s">
+        <v>466</v>
+      </c>
+      <c r="I10" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
         <v>132</v>
@@ -5205,101 +8528,1412 @@
       <c r="D11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>206</v>
+      </c>
+      <c r="H11" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H13" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>209</v>
+      </c>
+      <c r="H14" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" t="s">
+        <v>210</v>
+      </c>
+      <c r="H15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="G16" t="s">
+        <v>211</v>
+      </c>
+      <c r="H16" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="G17" t="s">
+        <v>212</v>
+      </c>
+      <c r="H17" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>99</v>
       </c>
       <c r="B18" s="204" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>213</v>
+      </c>
+      <c r="H18" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>214</v>
+      </c>
+      <c r="H19" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>215</v>
+      </c>
+      <c r="H20" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>216</v>
+      </c>
+      <c r="H21" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" t="s">
+        <v>217</v>
+      </c>
+      <c r="H22" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="G23" t="s">
+        <v>218</v>
+      </c>
+      <c r="H23" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="G24" t="s">
+        <v>219</v>
+      </c>
+      <c r="H24" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="G25" t="s">
+        <v>220</v>
+      </c>
+      <c r="H25" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="G26" t="s">
+        <v>221</v>
+      </c>
+      <c r="H26" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>107</v>
+      </c>
+      <c r="G27" t="s">
+        <v>222</v>
+      </c>
+      <c r="H27" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>223</v>
+      </c>
+      <c r="H28" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>224</v>
+      </c>
+      <c r="H29" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>225</v>
+      </c>
+      <c r="H30" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>226</v>
+      </c>
+      <c r="H31" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>227</v>
+      </c>
+      <c r="H32" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>228</v>
+      </c>
+      <c r="H33" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>229</v>
+      </c>
+      <c r="H34" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>230</v>
+      </c>
+      <c r="H35" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="41" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="44" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="47" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="48" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="57" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="59" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="60" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="62" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="63" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="64" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G66" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G67" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G68" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G69" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G70" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="71" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G71" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G72" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="73" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G73" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="74" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G74" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="75" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G75" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="76" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G76" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="77" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G77" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G78" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="79" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G79" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G80" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G81" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G82" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G83" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G84" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G85" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G86" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G87" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="88" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G88" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="89" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G89" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="90" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G90" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="91" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G91" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="92" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G92" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="93" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G93" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="94" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G94" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="95" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G95" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="96" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G96" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="97" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G97" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="98" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G98" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="99" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G99" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="100" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G100" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="101" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G101" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="102" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G102" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="103" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G103" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="104" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G104" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="105" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G105" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="106" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G106" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="107" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G107" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="108" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G108" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="109" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G109" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="110" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G110" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="111" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G111" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="112" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G112" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="113" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G113" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="114" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G114" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="115" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G115" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="116" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G116" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="117" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G117" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="118" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G118" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="119" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G119" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="120" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G120" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="121" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G121" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="122" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G122" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="123" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G123" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="124" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G124" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="125" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G125" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="126" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G126" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="127" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G127" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="128" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G128" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="129" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G129" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="130" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G130" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="131" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G131" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="132" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G132" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="133" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G133" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="134" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G134" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="135" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G135" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="136" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G136" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="137" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G137" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="138" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G138" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="139" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G139" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="140" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G140" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="141" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G141" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="142" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G142" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="143" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G143" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="144" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G144" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="145" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G145" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="146" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G146" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="147" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G147" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="148" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G148" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="149" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G149" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="150" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G150" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="151" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G151" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="152" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G152" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="153" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G153" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="154" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G154" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="155" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G155" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="156" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G156" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="157" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G157" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="158" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G158" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="159" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G159" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="160" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G160" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="161" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G161" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="162" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G162" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="163" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G163" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="164" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G164" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="165" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G165" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="166" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G166" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="167" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G167" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="168" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G168" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="169" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G169" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="170" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G170" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="171" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G171" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="172" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G172" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="173" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G173" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="174" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G174" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="175" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G175" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="176" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G176" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="177" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G177" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="178" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G178" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="179" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G179" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="180" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G180" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="181" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G181" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="182" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G182" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="183" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G183" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="184" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G184" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="185" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G185" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="186" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G186" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="187" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G187" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="188" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G188" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="189" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G189" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="190" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G190" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="191" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G191" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="192" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G192" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="193" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G193" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="194" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G194" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="195" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G195" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="196" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G196" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="197" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G197" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="198" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G198" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="199" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G199" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="200" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G200" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="201" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G201" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="202" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G202" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="203" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G203" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="204" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G204" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="205" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G205" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="206" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G206" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="207" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G207" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="208" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G208" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="209" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G209" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="210" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G210" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="211" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G211" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="212" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G212" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="213" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G213" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="214" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G214" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="215" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G215" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="216" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G216" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="217" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G217" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="218" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G218" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="219" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G219" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="220" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G220" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="221" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G221" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="222" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G222" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="223" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G223" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="224" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G224" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="225" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G225" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="226" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G226" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="227" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G227" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="228" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G228" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="229" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G229" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="230" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G230" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="231" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G231" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="232" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G232" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="233" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G233" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="234" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G234" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="235" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G235" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="236" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G236" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="237" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G237" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="238" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G238" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="239" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G239" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="240" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G240" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="241" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G241" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="242" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G242" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="243" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G243" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="244" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G244" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="245" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G245" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="246" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G246" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="247" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G247" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="248" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G248" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="249" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G249" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="250" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G250" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="251" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G251" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="252" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G252" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="253" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G253" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="254" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G254" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="255" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G255" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="256" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G256" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="257" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G257" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="258" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G258" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="259" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G259" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="260" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G260" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="261" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G261" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="262" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G262" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="263" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G263" t="s">
+        <v>458</v>
       </c>
     </row>
   </sheetData>
